--- a/Datos/Database by set/Set with text box/Xlsx sets/Eldritch Moon Tokens (TEMN).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Eldritch Moon Tokens (TEMN).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,385 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eldrazi Horror</t>
+          <t>('Eldrazi Horror', ['Token Creature — Eldrazi Horror', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi Horror</t>
+          <t>('Eldritch Moon Checklist', ['Card', '(You can mark this card to represent a meld or double-faced card in your library or hand.)', '☐ Bruna, the Fading Light {5}{W}{W}', '☐ Extricator of Sin {2}{W}', '☐ Gisela, the Broken Blade {2}{W}{W}', '☐ Lone Rider {1}{W}', '☐ Curious Homunculus {1}{U}', '☐ Docent of Perfection {3}{U}{U}', '☐ Grizzled Angler {2}{U}', '☐ Graf Rats {1}{B}', '☐ Midnight Scavengers {4}{B}', '☐ Voldaren Pariah {3}{B}{B}', '☐ Conduit of Storms {2}{R}', '☐ Hanweir Garrison {2}{R}', '☐ Smoldering Werewolf {2}{R}{R}', '☐ Vildin-Pack Outcast {4}{R}', '☐ Kessig Prowler {G}', '☐ Shrill Howler {2}{G}', '☐ Tangleclaw Werewolf {2}{G}{G}', '☐ Ulvenwald Captive {1}{G}', '☐ Ulrich of the Krallenhorde {3}{R}{G}', '☐ Cryptolith Fragment {3}', '☐ Hanweir Battlements'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>('Human', ['Token Creature — Human', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eldritch Moon Checklist</t>
+          <t>('Human Wizard', ['Token Creature — Human Wizard', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Liliana, the Last Hope Emblem', ['Emblem — Liliana', 'At the beginning of your end step, create X 2/2 black Zombie creature tokens, where X is two plus the number of Zombies you control.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(You can mark this card to represent a meld or double-faced card in your library or hand.)</t>
+          <t>('Spider', ['Token Creature — Spider', 'Reach', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>☐ Bruna, the Fading Light {5}{W}{W}</t>
+          <t>('Tamiyo, Field Researcher Emblem', ['Emblem — Tamiyo', 'You may cast nonland cards from your hand without paying their mana costs.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>☐ Extricator of Sin {2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>☐ Gisela, the Broken Blade {2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>☐ Lone Rider {1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>☐ Curious Homunculus {1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>☐ Docent of Perfection {3}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>☐ Grizzled Angler {2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>☐ Graf Rats {1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>☐ Midnight Scavengers {4}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>☐ Voldaren Pariah {3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>☐ Conduit of Storms {2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>☐ Hanweir Garrison {2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>☐ Smoldering Werewolf {2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>☐ Vildin-Pack Outcast {4}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>☐ Kessig Prowler {G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>☐ Shrill Howler {2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>☐ Tangleclaw Werewolf {2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>☐ Ulvenwald Captive {1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>☐ Ulrich of the Krallenhorde {3}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>☐ Cryptolith Fragment {3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>☐ Hanweir Battlements</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Token Creature — Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Liliana, the Last Hope Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Emblem — Liliana</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>At the beginning of your end step, create X 2/2 black Zombie creature tokens, where X is two plus the number of Zombies you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Token Creature — Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tamiyo, Field Researcher Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Emblem — Tamiyo</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>You may cast nonland cards from your hand without paying their mana costs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
